--- a/resources/mot_result.xlsx
+++ b/resources/mot_result.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93AA357-EBE6-40F9-B362-3804A23B9F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="1" r:id="rId1"/>
@@ -13,12 +14,25 @@
     <sheet name="002_dehaze_UNICORN" sheetId="4" r:id="rId4"/>
     <sheet name="006_dehaze_UNICORN" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
   <si>
     <t>Model</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -64,70 +78,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>28.1 (+0.9) (+0)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>67.3 (-0.1) (+0.1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>43.9 (+0.5) (-0.6)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Dehamer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>27.6 (+0.4) (-0.5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>67.5 (+0.1) (+0.3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>43.7 (+0.3) (-0.8)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Dehamer indoor</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>25.5 (-1.7) (-2.6)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>67.2 (-0.2) (+0)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40.1 (-3.3) (-4.4)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DCP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>25.3 (-1.9) (-2.8)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>42.9 (-0.5) (-1.6)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>mMOTA</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNICORN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -171,12 +145,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -272,6 +243,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -307,6 +295,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -482,11 +487,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -498,13 +503,13 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -533,24 +538,101 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>0.01</v>
+      </c>
+      <c r="C2">
+        <v>36.5</v>
+      </c>
+      <c r="D2">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="E2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>0.02</v>
+      </c>
+      <c r="C3">
+        <v>35.1</v>
+      </c>
+      <c r="D3">
+        <v>72.8</v>
+      </c>
+      <c r="E3">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0.06</v>
+      </c>
+      <c r="C4">
+        <v>23.3</v>
+      </c>
+      <c r="D4">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="E4">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -569,13 +651,13 @@
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -586,14 +668,14 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
+      <c r="C2" s="1">
+        <v>38.4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="E2" s="1">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -601,16 +683,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>38.1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="E3" s="1">
+        <v>49.7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -618,16 +700,16 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>38.9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>73.2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>51.2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -635,17 +717,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="D5" s="1">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="E5" s="1">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -654,28 +741,226 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:I29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="26.125" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D2" s="1">
+        <v>73.2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="D3" s="1">
+        <v>73</v>
+      </c>
+      <c r="E3" s="1">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="D4" s="1">
+        <v>73.2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1">
+        <v>73</v>
+      </c>
+      <c r="E5" s="1">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="C12" sqref="C12:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>30.1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>25.7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>72.3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>36.4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>73.3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>82.3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/mot_result.xlsx
+++ b/resources/mot_result.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93AA357-EBE6-40F9-B362-3804A23B9F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30D0F41-2F4F-42FF-B374-319E1A439DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
   <si>
     <t>Model</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -95,6 +95,118 @@
   </si>
   <si>
     <t>UNICORN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38.4 (+1.9) (+0.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73.1 (+0.2) (+0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50 (+1.0) (-0.4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38.1 (+1.6) (-0.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.7 (+0.7) (-0.7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38.9 (+2.4) (+0.7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73.2 (+0.3) (+0.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51.2 (+2.2) (+0.8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.3 (+0.8) (-0.9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.5 (+0.5) (-0.9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.8 (+1.3) (-0.4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.7 (+1.2) (-0.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73 (+0.1) (-0.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.2 (+0.2) (-1.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38.2 (+1.7) (+0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.7 (+1.7) (+0.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37 (+0.5) (-1.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.1 (-6.4) (-8.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.4 (-5.6) (-7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.7 (-10.8) (-12.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72.3 (-0.6) (-0.8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.7 (-11.3) (-12.7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36.4 (-0.1) (-1.8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73.3 (+0.4) (+0.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.2 (-0.8) (-2.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34.5 (-2) (-3.7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82.3 (+9.4) (+9.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47 (-2) (-3.4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +654,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -629,10 +741,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -668,14 +780,14 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
-        <v>38.4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="E2" s="1">
-        <v>50</v>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -685,14 +797,14 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
-        <v>38.1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="E3" s="1">
-        <v>49.7</v>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -702,14 +814,14 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1">
-        <v>38.9</v>
-      </c>
-      <c r="D4" s="1">
-        <v>73.2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>51.2</v>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -719,20 +831,40 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="D5" s="1">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="E5" s="1">
-        <v>49.5</v>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -742,10 +874,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:I29"/>
+      <selection activeCell="C12" sqref="C12:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -781,14 +913,14 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="D2" s="1">
-        <v>73.2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>49.5</v>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -798,14 +930,14 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="D3" s="1">
-        <v>73</v>
-      </c>
-      <c r="E3" s="1">
-        <v>49.2</v>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -815,14 +947,14 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="D4" s="1">
-        <v>73.2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>50.7</v>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -832,20 +964,40 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1">
-        <v>37</v>
-      </c>
-      <c r="D5" s="1">
-        <v>73</v>
-      </c>
-      <c r="E5" s="1">
-        <v>49.5</v>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -855,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -894,14 +1046,14 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
-        <v>30.1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="E2" s="1">
-        <v>43.4</v>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -911,14 +1063,14 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
-        <v>25.7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>72.3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>37.700000000000003</v>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -928,14 +1080,14 @@
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1">
-        <v>36.4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>73.3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>48.2</v>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -945,20 +1097,40 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1">
-        <v>34.5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>82.3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>47</v>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/resources/mot_result.xlsx
+++ b/resources/mot_result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30D0F41-2F4F-42FF-B374-319E1A439DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D71870C-1494-422F-88BA-F743CBDB9EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
   <si>
     <t>Model</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -138,75 +138,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>37.8 (+1.3) (-0.4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37.7 (+1.2) (-0.5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>73 (+0.1) (-0.1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>49.2 (+0.2) (-1.2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38.2 (+1.7) (+0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50.7 (+1.7) (+0.3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37 (+0.5) (-1.2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30.1 (-6.4) (-8.1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>43.4 (-5.6) (-7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25.7 (-10.8) (-12.5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>72.3 (-0.6) (-0.8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37.7 (-11.3) (-12.7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36.4 (-0.1) (-1.8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>73.3 (+0.4) (+0.2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48.2 (-0.8) (-2.2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34.5 (-2) (-3.7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>82.3 (+9.4) (+9.2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47 (-2) (-3.4)</t>
+    <t>36.5 (-1.7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72.9 (-0.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49 (-1.4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35.1 (-3.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72.8 (-0.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.3 (-2.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23.3 (-14.9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72.4 (-0.7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35.7 (-14.7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.1 (+6.8) (-8.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.7 (+2.4) (-12.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36.4 (+13.1) (-1.8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34.5 (+11.2) (-3.7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73.1 (+0.7) (+0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72.3 (-0.1) (-0.8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73.3 (+0.9) (+0.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82.3 (+9.9) (+9.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.4 (+7.7) (-7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.7 (+2.0) (-12.7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.2 (+12.5) (-2.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47 (+11.3) (-3.4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.8 (+2.7) (-0.4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.7 (+2.6) (-0.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38.2 (+3.1) (+0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37 (+1.9) (-1.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73.2 (+0.4) (+0.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73 (+0.2) (-0.1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.5 (+1.2) (-0.9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.2 (+0.9) (-1.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.7 (+2.4) (+0.3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,7 +699,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:E2"/>
@@ -689,14 +737,14 @@
       <c r="B2">
         <v>0.01</v>
       </c>
-      <c r="C2">
-        <v>36.5</v>
-      </c>
-      <c r="D2">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="E2">
-        <v>49</v>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -706,14 +754,14 @@
       <c r="B3">
         <v>0.02</v>
       </c>
-      <c r="C3">
-        <v>35.1</v>
-      </c>
-      <c r="D3">
-        <v>72.8</v>
-      </c>
-      <c r="E3">
-        <v>48.3</v>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -723,15 +771,20 @@
       <c r="B4">
         <v>0.06</v>
       </c>
-      <c r="C4">
-        <v>23.3</v>
-      </c>
-      <c r="D4">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="E4">
-        <v>35.700000000000003</v>
-      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -744,7 +797,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -877,7 +930,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:F26"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -914,13 +967,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -931,13 +984,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -948,13 +1001,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -965,14 +1018,19 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
@@ -1010,7 +1068,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1047,13 +1105,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1064,13 +1122,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1081,13 +1139,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1098,14 +1156,19 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
